--- a/test_cases/TC-02.xlsx
+++ b/test_cases/TC-02.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="77">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Harry Alan Yang</t>
   </si>
   <si>
     <t>QA Tester’s Log</t>
   </si>
   <si>
-    <t>Review comments from Jane incorprated in version 2.1</t>
+    <t>...</t>
   </si>
   <si>
     <t>Version</t>
@@ -64,30 +64,66 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>Userid = Santivinas3@hotmail.com      Password: Lagunas56</t>
+    <t>Userid: Santivinas3@hotmail.com</t>
   </si>
   <si>
     <t>Already have an account created</t>
   </si>
   <si>
-    <t>Userid = Santivinas3    Password: !"#!"#!"#</t>
+    <t>Password: Lagunas56</t>
   </si>
   <si>
     <t>Have knowledge of my ID and password</t>
   </si>
   <si>
-    <t>Userid = Santivinas3@hotmail.com      Password: Lagunas5612</t>
-  </si>
-  <si>
     <t>The ID has to be a valid e-mail address</t>
   </si>
   <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>TS-2A</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Executions</t>
+  </si>
+  <si>
     <t>Test Scenario</t>
   </si>
   <si>
     <t>Verify customer can login after entering valid userid and password</t>
   </si>
   <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Regression 2</t>
+  </si>
+  <si>
+    <t>Regression 3</t>
+  </si>
+  <si>
+    <t>Regression 4</t>
+  </si>
+  <si>
+    <t>Tester: Agustin Perez</t>
+  </si>
+  <si>
+    <t>Tester: Santiago Tormakh</t>
+  </si>
+  <si>
+    <t>Tester: Harry Alan Yang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: - </t>
+  </si>
+  <si>
     <t>User Stories covered</t>
   </si>
   <si>
@@ -100,19 +136,19 @@
     <t>Not Automated</t>
   </si>
   <si>
-    <t>Executions</t>
-  </si>
-  <si>
-    <t>Regression 1</t>
-  </si>
-  <si>
-    <t>Regression 2</t>
-  </si>
-  <si>
-    <t>Regression 3</t>
-  </si>
-  <si>
-    <t>Regression 4</t>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not executed</t>
   </si>
   <si>
     <t>Step #</t>
@@ -124,28 +160,13 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Tester: Agustin Perez</t>
-  </si>
-  <si>
-    <t>Tester: Santiago Tormakh</t>
-  </si>
-  <si>
-    <t>Tester: Harry Alan Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester: - </t>
-  </si>
-  <si>
     <t>Navigate to http://demo.guru99.com</t>
   </si>
   <si>
     <t>Site should open</t>
   </si>
   <si>
-    <t>Actual Results</t>
-  </si>
-  <si>
-    <t>Pass / Fail / Not executed / Suspended</t>
+    <t>Fail</t>
   </si>
   <si>
     <t>Enter Userid &amp; Password</t>
@@ -154,58 +175,58 @@
     <t>Credential can be entered</t>
   </si>
   <si>
-    <t>As Expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Not executed</t>
-  </si>
-  <si>
     <t>Click Submit</t>
   </si>
   <si>
     <t>Cutomer is logged in</t>
   </si>
   <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
     <t>The page loads</t>
   </si>
   <si>
     <t>The customer is redirected to the main menu of the webpage.</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Defects Created</t>
-  </si>
-  <si>
     <t>DF-003: Site did not recognize valid credentials as such so user cannot access Home page</t>
   </si>
   <si>
+    <t>TS-2B</t>
+  </si>
+  <si>
     <t>Verify customer cannot login after entering an invalid username or password.</t>
   </si>
   <si>
-    <t>PE-55</t>
-  </si>
-  <si>
     <t>Tester: Santiago Viñas</t>
   </si>
   <si>
+    <t>Userid: Santivinas3</t>
+  </si>
+  <si>
+    <t>Password: !"#!"#!"#</t>
+  </si>
+  <si>
     <t>A wrong ID and password is entered(non-existing account)</t>
   </si>
   <si>
     <t xml:space="preserve">A sign detailing that "user or password are invalid, try again", is shown </t>
   </si>
   <si>
+    <t>TS-2C</t>
+  </si>
+  <si>
     <t>Verify customer cannot login after entering a wrong ID, paswword or both.</t>
   </si>
   <si>
-    <t>PE-56</t>
-  </si>
-  <si>
     <t>Tester:</t>
+  </si>
+  <si>
+    <t>Userid: antivinas3@hotmail.com</t>
+  </si>
+  <si>
+    <t>Password: Lagunas5612</t>
   </si>
   <si>
     <t>A wrong ID or password is entered(wrong data)</t>
@@ -227,7 +248,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d.m"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -259,6 +283,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="10.0"/>
@@ -266,6 +301,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -283,15 +331,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10.0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -301,23 +342,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <u/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="10.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -341,6 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor rgb="FFA5A5A5"/>
       </patternFill>
@@ -351,14 +407,8 @@
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border/>
     <border>
       <left style="thin">
@@ -424,9 +474,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -435,6 +482,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -460,14 +510,22 @@
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -484,6 +542,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -493,33 +554,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,17 +582,20 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -581,86 +623,142 @@
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="3" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="17" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="17" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="9" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -883,8 +981,8 @@
     <col customWidth="1" min="2" max="2" width="31.14"/>
     <col customWidth="1" min="3" max="3" width="21.71"/>
     <col customWidth="1" min="4" max="4" width="9.14"/>
-    <col customWidth="1" min="5" max="5" width="68.86"/>
-    <col customWidth="1" min="6" max="6" width="27.71"/>
+    <col customWidth="1" min="5" max="5" width="13.43"/>
+    <col customWidth="1" min="6" max="6" width="14.14"/>
     <col customWidth="1" min="7" max="7" width="9.57"/>
     <col customWidth="1" min="8" max="8" width="16.14"/>
     <col customWidth="1" min="9" max="9" width="24.43"/>
@@ -941,10 +1039,10 @@
       <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="F3" s="14"/>
+      <c r="E3" s="14">
+        <v>44562.0</v>
+      </c>
+      <c r="F3" s="15"/>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
@@ -952,19 +1050,19 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
@@ -975,14 +1073,14 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -991,64 +1089,60 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="20">
+      <c r="A8" s="21">
         <v>1.0</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="22">
+      <c r="D8" s="23">
         <v>1.0</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="20">
+      <c r="A9" s="21">
         <v>2.0</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="22">
+      <c r="D9" s="25">
         <v>2.0</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="6"/>
     </row>
     <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="20">
+      <c r="A10" s="21">
         <v>3.0</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="22" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="22">
-        <v>3.0</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>22</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12">
       <c r="A12" s="6"/>
@@ -1059,941 +1153,1026 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" ht="15.0" customHeight="1">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="D15" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="31" t="s">
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="B16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="H15" s="35" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="6"/>
+      <c r="H16" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="37" t="s">
+      <c r="I16" s="5"/>
+      <c r="J16" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="37" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="37" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="37" t="s">
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="6"/>
+      <c r="H17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="38" t="s">
+      <c r="I17" s="5"/>
+      <c r="J17" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="40" t="s">
+      <c r="M17" s="5"/>
+      <c r="N17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="37" t="s">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" ht="27.0" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="41" t="s">
+      <c r="B18" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="41" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="41" t="s">
+      <c r="E18" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" ht="84.0" customHeight="1">
-      <c r="A18" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="F18" s="6"/>
+      <c r="H18" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="43" t="s">
+      <c r="I18" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="H18" s="44" t="s">
+      <c r="J18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="F19" s="6"/>
+      <c r="H19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I19" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="44" t="s">
+      <c r="J19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="44" t="s">
+      <c r="K19" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L19" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="44" t="s">
+      <c r="M19" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="N18" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="A19" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="B19" s="43" t="s">
+      <c r="N19" s="49"/>
+      <c r="O19" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="43" t="s">
+    </row>
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="H19" s="45" t="s">
+      <c r="B20" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="52" t="s">
         <v>48</v>
-      </c>
-      <c r="J19" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="56.25" customHeight="1">
-      <c r="A20" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="43" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
-      <c r="H20" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M20" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45" t="s">
+      <c r="H20" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="24.0" customHeight="1">
+      <c r="A21" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B21" s="54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" ht="63.0" customHeight="1">
-      <c r="A21" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>52</v>
-      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="43" t="s">
-        <v>53</v>
+      <c r="D21" s="54" t="s">
+        <v>50</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="20.25" customHeight="1">
+      <c r="A22" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" ht="18.0" customHeight="1">
+      <c r="A23" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="B23" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="H23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" ht="43.5" customHeight="1">
+      <c r="A24" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="59"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="H25" s="57"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="5"/>
+      <c r="Q25" s="60"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="H26" s="57"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="5"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="5"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="H31" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="5"/>
+    </row>
+    <row r="32" ht="20.25" customHeight="1">
+      <c r="A32" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="5"/>
+      <c r="L32" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" ht="21.75" customHeight="1">
+      <c r="A33" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N33" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="E34" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="70"/>
+      <c r="E35" s="15"/>
+      <c r="H35" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="H36" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="E38" s="5"/>
+      <c r="H38" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B40" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="5"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="H44" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="H45" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="L45" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="63"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="9"/>
+      <c r="H46" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="5"/>
+      <c r="L46" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" ht="26.25" customHeight="1">
+      <c r="A47" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="O47" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="H48" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M48" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="D49" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J49" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M49" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" ht="21.0" customHeight="1">
+      <c r="D50" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I50" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L50" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="M50" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="D51" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="E51" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H51" s="49"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="22"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="H52" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="M52" s="5"/>
+      <c r="N52" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="45" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="N21" s="45"/>
-      <c r="O21" s="45" t="s">
+      <c r="E53" s="5"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B54" s="54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" ht="55.5" customHeight="1">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" ht="67.5" customHeight="1">
-      <c r="A23" s="46"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="46"/>
-      <c r="F23" s="6"/>
-      <c r="H23" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="51"/>
-    </row>
-    <row r="24" ht="55.5" customHeight="1">
-      <c r="B24" s="52"/>
-      <c r="C24" s="14"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="51"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="52"/>
-      <c r="C25" s="14"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="51"/>
-      <c r="Q25" s="55"/>
-    </row>
-    <row r="26" ht="45.0" customHeight="1">
-      <c r="H26" s="53"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="51"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="H30" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="H31" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="B32" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" ht="82.5" customHeight="1">
-      <c r="H33" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="L33" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M33" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="O33" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="H34" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K34" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L34" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="45"/>
-      <c r="O34" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="H35" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K35" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L35" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" s="45"/>
-      <c r="O35" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="42">
+      <c r="C54" s="5"/>
+      <c r="D54" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="53">
         <v>2.0</v>
       </c>
-      <c r="C36" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="H36" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J36" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="L36" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M36" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="42">
+      <c r="B55" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="53">
         <v>3.0</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-      <c r="J37" s="45"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="21"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="42">
+      <c r="B56" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="53">
         <v>4.0</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="5"/>
-      <c r="H38" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" s="51"/>
-      <c r="J38" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K38" s="51"/>
-      <c r="L38" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M38" s="51"/>
-      <c r="N38" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" s="51"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="H39" s="53"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K39" s="51"/>
-      <c r="L39" s="53"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="51"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="H40" s="53"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="51"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="H41" s="53"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="51"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="H44" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="H46" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" ht="103.5" customHeight="1">
-      <c r="B47" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="H47" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="L47" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="M47" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="N47" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" s="44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="H48" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I48" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L48" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M48" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="42">
-        <v>2.0</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="5"/>
-      <c r="E49" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="H49" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J49" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K49" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L49" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M49" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N49" s="45"/>
-      <c r="O49" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="42">
-        <v>3.0</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="5"/>
-      <c r="E50" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50" s="5"/>
-      <c r="H50" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="K50" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="L50" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="M50" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="42">
-        <v>4.0</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45"/>
-      <c r="J51" s="45"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="47"/>
-      <c r="O51" s="21"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="42">
+      <c r="B57" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="53">
         <v>5.0</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="H52" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="I52" s="51"/>
-      <c r="J52" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52" s="51"/>
-      <c r="L52" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M52" s="51"/>
-      <c r="N52" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52" s="51"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="42">
+      <c r="B58" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="53">
         <v>6.0</v>
       </c>
-      <c r="C53" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="K53" s="51"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="51"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="12">
+      <c r="B59" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="74">
         <v>7.0</v>
       </c>
-      <c r="C54" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="51"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="H55" s="53"/>
-      <c r="I55" s="51"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="51"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
+      <c r="B60" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
     <row r="61" ht="15.75" customHeight="1"/>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1"/>
@@ -2935,80 +3114,126 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:F44"/>
+  <mergeCells count="119">
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
     <mergeCell ref="H44:O44"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:F31"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/test_cases/TC-02.xlsx
+++ b/test_cases/TC-02.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harry\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192AC266-122F-4072-B4ED-6F7DACD7D11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="74">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -64,18 +73,12 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>Userid: Santivinas3@hotmail.com</t>
-  </si>
-  <si>
     <t>Already have an account created</t>
   </si>
   <si>
     <t>Password: Lagunas56</t>
   </si>
   <si>
-    <t>Have knowledge of my ID and password</t>
-  </si>
-  <si>
     <t>The ID has to be a valid e-mail address</t>
   </si>
   <si>
@@ -112,12 +115,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>Tester: Agustin Perez</t>
-  </si>
-  <si>
-    <t>Tester: Santiago Tormakh</t>
-  </si>
-  <si>
     <t>Tester: Harry Alan Yang</t>
   </si>
   <si>
@@ -160,24 +157,12 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <t>Navigate to http://demo.guru99.com</t>
-  </si>
-  <si>
     <t>Site should open</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Enter Userid &amp; Password</t>
-  </si>
-  <si>
     <t>Credential can be entered</t>
   </si>
   <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
     <t>Cutomer is logged in</t>
   </si>
   <si>
@@ -190,36 +175,21 @@
     <t>The customer is redirected to the main menu of the webpage.</t>
   </si>
   <si>
-    <t>DF-003: Site did not recognize valid credentials as such so user cannot access Home page</t>
-  </si>
-  <si>
     <t>TS-2B</t>
   </si>
   <si>
     <t>Verify customer cannot login after entering an invalid username or password.</t>
   </si>
   <si>
-    <t>Tester: Santiago Viñas</t>
-  </si>
-  <si>
-    <t>Userid: Santivinas3</t>
-  </si>
-  <si>
     <t>Password: !"#!"#!"#</t>
   </si>
   <si>
-    <t>A wrong ID and password is entered(non-existing account)</t>
-  </si>
-  <si>
     <t xml:space="preserve">A sign detailing that "user or password are invalid, try again", is shown </t>
   </si>
   <si>
     <t>TS-2C</t>
   </si>
   <si>
-    <t>Verify customer cannot login after entering a wrong ID, paswword or both.</t>
-  </si>
-  <si>
     <t>Tester:</t>
   </si>
   <si>
@@ -229,9 +199,6 @@
     <t>Password: Lagunas5612</t>
   </si>
   <si>
-    <t>A wrong ID or password is entered(wrong data)</t>
-  </si>
-  <si>
     <t>The users has attempted 3 times to login, all of them unsuccesfully</t>
   </si>
   <si>
@@ -242,136 +209,175 @@
   </si>
   <si>
     <t>The "unlock user" functionality must be able to reset the password.</t>
+  </si>
+  <si>
+    <t>Click Sign-in</t>
+  </si>
+  <si>
+    <t>Enter Email Address &amp; Password</t>
+  </si>
+  <si>
+    <t>Enter Email &amp; Password</t>
+  </si>
+  <si>
+    <t>Email Address: Santivinas3@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify customer cannot login after entering a wrong ID, password or both.</t>
+  </si>
+  <si>
+    <t>An invalid Email Address and password is entered(non-existing account)</t>
+  </si>
+  <si>
+    <t>An invalid Email Address or password is entered(wrong data)</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Have knowledge of my Email Address and password</t>
+  </si>
+  <si>
+    <t>Email Address: 
+Test1234658@gmail.com</t>
+  </si>
+  <si>
+    <t>Navigate to http://automationpractice.com/index.php?controller=authentication&amp;back=my-account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d.m"/>
+    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
   <fonts count="22">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -381,7 +387,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -409,7 +415,13 @@
     </fill>
   </fills>
   <borders count="16">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
@@ -423,8 +435,10 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -434,6 +448,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -448,17 +463,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -469,22 +487,29 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -497,6 +522,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -508,35 +534,50 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -545,236 +586,237 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="74">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="14" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="9" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="14" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -964,39 +1006,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:C54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.14"/>
-    <col customWidth="1" min="2" max="2" width="31.14"/>
-    <col customWidth="1" min="3" max="3" width="21.71"/>
-    <col customWidth="1" min="4" max="4" width="9.14"/>
-    <col customWidth="1" min="5" max="5" width="13.43"/>
-    <col customWidth="1" min="6" max="6" width="14.14"/>
-    <col customWidth="1" min="7" max="7" width="9.57"/>
-    <col customWidth="1" min="8" max="8" width="16.14"/>
-    <col customWidth="1" min="9" max="9" width="24.43"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="17.29"/>
-    <col customWidth="1" min="12" max="12" width="16.57"/>
-    <col customWidth="1" min="13" max="13" width="9.14"/>
-    <col customWidth="1" min="14" max="14" width="18.14"/>
-    <col customWidth="1" min="15" max="15" width="9.14"/>
-    <col customWidth="1" min="16" max="16" width="16.0"/>
-    <col customWidth="1" min="17" max="26" width="9.14"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="26" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="14.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,1177 +1050,1191 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2">
+      <c r="E1" s="49"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="14.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="E2" s="63"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.399999999999999">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14">
-        <v>44562.0</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="E3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="14.4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" ht="30.6">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.4">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="20" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="30.6">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="24" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.399999999999999">
+      <c r="A9" s="17">
+        <v>2</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="21">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1">
+      <c r="A11" s="17">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" ht="21.0" customHeight="1">
-      <c r="A10" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" ht="14.4">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="14.4">
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="B15" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" ht="15.0" customHeight="1">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="D15" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="1:15" ht="14.4">
+      <c r="A16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="H15" s="32" t="s">
+      <c r="B16" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="34" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="I16" s="49"/>
+      <c r="J16" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="6"/>
-      <c r="H16" s="38" t="s">
+      <c r="K16" s="49"/>
+      <c r="L16" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="38" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="38" t="s">
+      <c r="O16" s="49"/>
+    </row>
+    <row r="17" spans="1:17" ht="19.5" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="38" t="s">
+      <c r="I17" s="49"/>
+      <c r="J17" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="49"/>
+      <c r="N17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="6"/>
-      <c r="H17" s="38" t="s">
+      <c r="O17" s="49"/>
+    </row>
+    <row r="18" spans="1:17" ht="27" customHeight="1">
+      <c r="A18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="43" t="s">
+      <c r="B18" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="43" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="43" t="s">
+      <c r="E18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" ht="27.0" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="F18" s="4"/>
+      <c r="H18" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="I18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="44" t="s">
+      <c r="J18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="25.5" customHeight="1">
+      <c r="F19" s="4"/>
+      <c r="H19" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="I19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="H18" s="48" t="s">
+      <c r="J19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="48" t="s">
+      <c r="L19" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A20" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="B20" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="48" t="s">
+      <c r="L20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="48" t="s">
+      <c r="N20" s="37"/>
+      <c r="O20" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="F19" s="6"/>
-      <c r="H19" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49" t="s">
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1">
+      <c r="A21" s="39">
+        <v>1</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="49"/>
+      <c r="D21" s="51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="50" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A22" s="39">
+        <v>2</v>
+      </c>
+      <c r="B22" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="49"/>
+      <c r="D22" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="51" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="18"/>
+    </row>
+    <row r="23" spans="1:17" ht="18" customHeight="1">
+      <c r="A23" s="39">
+        <v>3</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="52" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="H20" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" ht="24.0" customHeight="1">
-      <c r="A21" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B21" s="54" t="s">
+      <c r="I23" s="49"/>
+      <c r="J23" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="49"/>
+      <c r="L23" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="49"/>
+      <c r="N23" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O23" s="49"/>
+    </row>
+    <row r="24" spans="1:17" ht="43.5" customHeight="1">
+      <c r="A24" s="39">
+        <v>4</v>
+      </c>
+      <c r="B24" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="54" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="H21" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="49" t="s">
+      <c r="E24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" customHeight="1">
+      <c r="H25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="49"/>
+      <c r="Q25" s="43"/>
+    </row>
+    <row r="26" spans="1:17" ht="14.25" customHeight="1">
+      <c r="H26" s="50"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="49"/>
+    </row>
+    <row r="27" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A27" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L21" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M21" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="20.25" customHeight="1">
-      <c r="A22" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="B22" s="54" t="s">
+      <c r="C27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="49"/>
+    </row>
+    <row r="28" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A28" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="22"/>
-    </row>
-    <row r="23" ht="18.0" customHeight="1">
-      <c r="A23" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="H23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" ht="43.5" customHeight="1">
-      <c r="A24" s="53">
-        <v>4.0</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="59"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="H25" s="57"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="5"/>
-      <c r="Q25" s="60"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="H26" s="57"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+    </row>
+    <row r="29" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+    </row>
+    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="61" t="s">
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="49"/>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+      <c r="H31" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="63"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="H31" s="38" t="s">
+      <c r="I31" s="49"/>
+      <c r="J31" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="49"/>
+      <c r="L31" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="38" t="s">
+      <c r="M31" s="49"/>
+      <c r="N31" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="5"/>
-      <c r="L31" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" ht="20.25" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="O31" s="49"/>
+    </row>
+    <row r="32" spans="1:17" ht="20.25" customHeight="1">
+      <c r="A32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="38" t="s">
+      <c r="H32" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="49"/>
+      <c r="L32" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="49"/>
+      <c r="N32" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="49"/>
+    </row>
+    <row r="33" spans="1:15" ht="21.75" customHeight="1">
+      <c r="A33" s="17">
+        <v>1</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O33" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A34" s="17">
+        <v>2</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="19">
+        <v>2</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M34" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A35" s="19">
+        <v>3</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="11"/>
+      <c r="H35" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+      <c r="H36" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+      <c r="H37" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="18"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A38" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="49"/>
+      <c r="H38" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="49"/>
+      <c r="J38" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="49"/>
+      <c r="L38" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="49"/>
+      <c r="N38" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="49"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A39" s="39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="49"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="49"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A40" s="39">
+        <v>2</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="49"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="50"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="49"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A41" s="39">
+        <v>3</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="50"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="50"/>
+      <c r="O41" s="49"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A42" s="39">
+        <v>4</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="49"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A44" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="H44" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="49"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A45" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="H45" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" s="49"/>
+      <c r="J45" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="49"/>
+      <c r="L45" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" s="49"/>
+      <c r="N45" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="O45" s="49"/>
+    </row>
+    <row r="46" spans="1:15" ht="24.75" customHeight="1">
+      <c r="A46" s="57"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="H46" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="49"/>
+      <c r="J46" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K46" s="49"/>
+      <c r="L46" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="M46" s="49"/>
+      <c r="N46" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="49"/>
+    </row>
+    <row r="47" spans="1:15" ht="26.25" customHeight="1">
+      <c r="A47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="K32" s="5"/>
-      <c r="L32" s="43" t="s">
+      <c r="B47" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="34"/>
+      <c r="D47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M32" s="5"/>
-      <c r="N32" s="43" t="s">
+      <c r="E47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" ht="21.75" customHeight="1">
-      <c r="A33" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="H33" s="48" t="s">
+      <c r="H47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="O47" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+      <c r="H48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" s="48" t="s">
+      <c r="J48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="K33" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L33" s="48" t="s">
+      <c r="L48" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M48" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="M33" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="N33" s="48" t="s">
+      <c r="N48" s="37"/>
+      <c r="O48" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M34" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="70"/>
-      <c r="E35" s="15"/>
-      <c r="H35" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L35" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="H36" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I36" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="L36" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="22"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="5"/>
-      <c r="H38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="5"/>
-      <c r="N38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B39" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="5"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="5"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" s="5"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="H44" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="37"/>
-      <c r="H45" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" ht="24.75" customHeight="1">
-      <c r="A46" s="63"/>
-      <c r="B46" s="64"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="9"/>
-      <c r="H46" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="K46" s="5"/>
-      <c r="L46" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="M46" s="5"/>
-      <c r="N46" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" ht="26.25" customHeight="1">
-      <c r="A47" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="K47" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="L47" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="N47" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O47" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="H48" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K48" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L48" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M48" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="20" t="s">
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+      <c r="D49" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H49" s="49" t="s">
+      <c r="H49" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="21" customHeight="1">
+      <c r="D50" s="19">
+        <v>1</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="M50" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+      <c r="D51" s="19">
+        <v>2</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="18"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1">
+      <c r="H52" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="49"/>
+      <c r="J52" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K52" s="49"/>
+      <c r="L52" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M52" s="49"/>
+      <c r="N52" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="O52" s="49"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A53" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="49" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="J49" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M49" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49" t="s">
+      <c r="E53" s="49"/>
+      <c r="H53" s="50"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="50"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="49"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A54" s="39">
+        <v>1</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="51" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" ht="21.0" customHeight="1">
-      <c r="D50" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E50" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="J50" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="L50" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="N50" s="49"/>
-      <c r="O50" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E51" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="22"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="H52" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="5"/>
-      <c r="N52" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="50" t="s">
+      <c r="E54" s="49"/>
+      <c r="H54" s="50"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="50"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="50"/>
+      <c r="O54" s="49"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A55" s="39">
+        <v>2</v>
+      </c>
+      <c r="B55" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="71" t="s">
+      <c r="E55" s="49"/>
+      <c r="H55" s="50"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="50"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="50"/>
+      <c r="O55" s="49"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A56" s="39">
+        <v>3</v>
+      </c>
+      <c r="B56" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="49"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A57" s="39">
+        <v>4</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="49"/>
+      <c r="D57" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="49"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A58" s="39">
+        <v>5</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="49"/>
+      <c r="D58" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="49"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A59" s="39">
+        <v>6</v>
+      </c>
+      <c r="B59" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="K53" s="5"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="53">
-        <v>1.0</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="5"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="53">
-        <v>2.0</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="5"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="5"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="53">
-        <v>3.0</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="53">
-        <v>4.0</v>
-      </c>
-      <c r="B57" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="53">
-        <v>5.0</v>
-      </c>
-      <c r="B58" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="53">
-        <v>6.0</v>
-      </c>
-      <c r="B59" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="74">
-        <v>7.0</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>75</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="49"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A60" s="47">
+        <v>7</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="49"/>
+      <c r="D60" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="49"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1"/>
@@ -3114,33 +3172,20 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="121">
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="N41:O41"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
@@ -3149,18 +3194,15 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="L25:M25"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="H30:O30"/>
     <mergeCell ref="H31:I31"/>
     <mergeCell ref="J31:K31"/>
@@ -3171,7 +3213,12 @@
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J26:K26"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="N26:O26"/>
     <mergeCell ref="H17:I17"/>
@@ -3185,8 +3232,17 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:E29"/>
     <mergeCell ref="D27:E27"/>
@@ -3202,6 +3258,15 @@
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="L46:M46"/>
@@ -3211,9 +3276,6 @@
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="A45:A46"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="L52:M52"/>
@@ -3224,8 +3286,6 @@
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
     <mergeCell ref="J53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="H54:I54"/>
@@ -3235,9 +3295,7 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="N55:O55"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>